--- a/Output/results.xlsx
+++ b/Output/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,95 +424,73 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Yoga Spa NYC Midtown - Yoga Classes and Spa Treatments</v>
+        <v>Marketers.Pk - Digital Marketing Agency in Lahore</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-226 E 54th St 7th floor, New York, NY 10022, United States</v>
+Office no 115, Century Tower, Kalma Chowk Flyover, Block L Block E 2 Gulberg, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-308-6789</v>
++92 311 1222741</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.yogaspa.nyc/</v>
+        <v>https://www.marketers.pk/</v>
       </c>
       <c r="E2" t="str">
-        <v>Yoga studio</v>
+        <v>Internet marketing service</v>
       </c>
       <c r="F2" t="str">
-        <v>robert@broofa.com</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Reiki Fox: Private Wellness Practice | NYC</v>
+        <v>Marketers.Pk - Digital Marketing Agency in Lahore</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-27 W 20th St, New York, NY 10011, United States</v>
+Office no 115, Century Tower, Kalma Chowk Flyover, Block L Block E 2 Gulberg, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 332-203-2384</v>
++92 311 1222741</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.reikifox.com/</v>
+        <v>https://www.marketers.pk/</v>
       </c>
       <c r="E3" t="str">
-        <v>Reiki therapist</v>
+        <v>Internet marketing service</v>
       </c>
       <c r="F3" t="str">
-        <v>robert@broofa.com</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Modo Yoga NYC</v>
+        <v>MML | Meta Marketing Lahore</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-434 6th Ave #2, New York, NY 10011, United States</v>
+137C, Block B Faisal Town, Flats, 54770, Pakistan</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-780-9642</v>
++92 301 4612048</v>
       </c>
       <c r="D4" t="str">
-        <v>http://www.modoyoga.com/nyc</v>
+        <v>https://digitalmarketingserviceslahore.pk/</v>
       </c>
       <c r="E4" t="str">
-        <v>Yoga studio</v>
+        <v>Marketing agency</v>
       </c>
       <c r="F4" t="str">
-        <v>robert@broofa.com</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>Hot Yoga Chelsea / Flatiron NYC</v>
-      </c>
-      <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-115 W 27th St 3rd floor, New York, NY 10001, United States</v>
-      </c>
-      <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 206-898-8029</v>
-      </c>
-      <c r="D5" t="str">
-        <v>https://www.hotyogachelsea.com/</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Yoga studio</v>
-      </c>
-      <c r="F5" t="str">
-        <v>robert@broofa.com</v>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Output/results.xlsx
+++ b/Output/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,21 +424,21 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Marketers.Pk - Digital Marketing Agency in Lahore</v>
+        <v>Dental Land Summerhill</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-Office no 115, Century Tower, Kalma Chowk Flyover, Block L Block E 2 Gulberg, Lahore, 54000, Pakistan</v>
+1221 Yonge St, Toronto, ON M4T 1W4, Canada</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+92 311 1222741</v>
++1 416-672-1000</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.marketers.pk/</v>
+        <v>https://dentalland.ca/</v>
       </c>
       <c r="E2" t="str">
-        <v>Internet marketing service</v>
+        <v>Dental clinic</v>
       </c>
       <c r="F2" t="str">
         <v>N/A</v>
@@ -446,21 +446,21 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Marketers.Pk - Digital Marketing Agency in Lahore</v>
+        <v>Dental Land Summerhill</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-Office no 115, Century Tower, Kalma Chowk Flyover, Block L Block E 2 Gulberg, Lahore, 54000, Pakistan</v>
+1221 Yonge St, Toronto, ON M4T 1W4, Canada</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+92 311 1222741</v>
++1 416-672-1000</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.marketers.pk/</v>
+        <v>https://dentalland.ca/</v>
       </c>
       <c r="E3" t="str">
-        <v>Internet marketing service</v>
+        <v>Dental clinic</v>
       </c>
       <c r="F3" t="str">
         <v>N/A</v>
@@ -468,29 +468,122 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>MML | Meta Marketing Lahore</v>
+        <v>Midtown Dental Centre</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-137C, Block B Faisal Town, Flats, 54770, Pakistan</v>
+20 Bloor St E Unit R4, Toronto, ON M4W 3G7, Canada</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+92 301 4612048</v>
-      </c>
-      <c r="D4" t="str">
-        <v>https://digitalmarketingserviceslahore.pk/</v>
++1 416-966-3368</v>
       </c>
       <c r="E4" t="str">
-        <v>Marketing agency</v>
+        <v>Dentist</v>
       </c>
       <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>The Richmond Dental Centre</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+294 Richmond St E Suite 101, Toronto, ON M5A 1P5, Canada</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 416-214-0508</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://www.therichmonddentalcentre.com/</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Dentist</v>
+      </c>
+      <c r="F5" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Dentistry on Queen Street West</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+1157 Queen St W, Toronto, ON M6J 1J4, Canada</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 647-350-1156</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://dentistryonqueenwest.ca/</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Dentist</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Corktown Dental Centre</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+184 Front St E, Toronto, ON M5A 4N3, Canada</v>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 416-363-5353</v>
+      </c>
+      <c r="D7" t="str">
+        <v>http://www.corktowndental.com/</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Dentist</v>
+      </c>
+      <c r="F7" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Downtown Dentistry</v>
+      </c>
+      <c r="F8" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>The Plaza Dental Centre</v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+40 King St W, Toronto, ON M5H 3Y2, Canada</v>
+      </c>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 416-861-9990</v>
+      </c>
+      <c r="D9" t="str">
+        <v>http://www.plazadental.ca/</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Dentist</v>
+      </c>
+      <c r="F9" t="str">
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Output/results.xlsx
+++ b/Output/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,21 +424,21 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Dental Land Summerhill</v>
+        <v>Whiskey A Go-Go Strip Club &amp; Adult Entertainment Venue</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-1221 Yonge St, Toronto, ON M4T 1W4, Canada</v>
+544 Rivermede Rd, Concord, ON L4K 2H4, Canada</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 416-672-1000</v>
++1 416-722-6269</v>
       </c>
       <c r="D2" t="str">
-        <v>https://dentalland.ca/</v>
+        <v>http://www.whiskeyagogo.com/</v>
       </c>
       <c r="E2" t="str">
-        <v>Dental clinic</v>
+        <v>Adult entertainment club</v>
       </c>
       <c r="F2" t="str">
         <v>N/A</v>
@@ -446,21 +446,21 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Dental Land Summerhill</v>
+        <v>The Granville Strip</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-1221 Yonge St, Toronto, ON M4T 1W4, Canada</v>
+1050 Granville St, Vancouver, BC V6Z 1L5, Canada</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 416-672-1000</v>
++1 778-379-0555</v>
       </c>
       <c r="D3" t="str">
-        <v>https://dentalland.ca/</v>
+        <v>http://www.thegranvillestrip.com/</v>
       </c>
       <c r="E3" t="str">
-        <v>Dental clinic</v>
+        <v>Adult entertainment club</v>
       </c>
       <c r="F3" t="str">
         <v>N/A</v>
@@ -468,18 +468,21 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Midtown Dental Centre</v>
+        <v>Shade Gentlemen's Club</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-20 Bloor St E Unit R4, Toronto, ON M4W 3G7, Canada</v>
+10148 105 St NW, Edmonton, AB T5J 1C9, Canada</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 416-966-3368</v>
++1 780-761-2742</v>
+      </c>
+      <c r="D4" t="str">
+        <v>http://linktr.ee/shadegentlemensclub</v>
       </c>
       <c r="E4" t="str">
-        <v>Dentist</v>
+        <v>Club</v>
       </c>
       <c r="F4" t="str">
         <v>N/A</v>
@@ -487,21 +490,21 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>The Richmond Dental Centre</v>
+        <v>Pure Gold Gentlemen's Club</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
         <v xml:space="preserve">
-294 Richmond St E Suite 101, Toronto, ON M5A 1P5, Canada</v>
+2630 Royal Windsor Dr, Mississauga, ON L5J 1K7, Canada</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 416-214-0508</v>
++1 905-822-1525</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.therichmonddentalcentre.com/</v>
+        <v>https://thepuregoldclub.com/</v>
       </c>
       <c r="E5" t="str">
-        <v>Dentist</v>
+        <v>Adult entertainment club</v>
       </c>
       <c r="F5" t="str">
         <v>N/A</v>
@@ -509,21 +512,21 @@
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Dentistry on Queen Street West</v>
+        <v>Mints Adult Entertainment</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-1157 Queen St W, Toronto, ON M6J 1J4, Canada</v>
+5951 Main St, Niagara Falls, ON L2G 5Z7, Canada</v>
       </c>
       <c r="C6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 647-350-1156</v>
++1 905-357-0471</v>
       </c>
       <c r="D6" t="str">
-        <v>https://dentistryonqueenwest.ca/</v>
+        <v>http://www.mintsniagara.com/</v>
       </c>
       <c r="E6" t="str">
-        <v>Dentist</v>
+        <v>Adult entertainment club</v>
       </c>
       <c r="F6" t="str">
         <v>N/A</v>
@@ -531,29 +534,43 @@
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>Corktown Dental Centre</v>
+        <v>Sundowner</v>
       </c>
       <c r="B7" t="str" xml:space="preserve">
         <v xml:space="preserve">
-184 Front St E, Toronto, ON M5A 4N3, Canada</v>
+8870 Lundy's Ln, Niagara Falls, ON L2H 1H4, Canada</v>
       </c>
       <c r="C7" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 416-363-5353</v>
++1 905-358-9124</v>
       </c>
       <c r="D7" t="str">
-        <v>http://www.corktowndental.com/</v>
+        <v>http://www.sundownerclub.ca/</v>
       </c>
       <c r="E7" t="str">
-        <v>Dentist</v>
+        <v>Adult entertainment club</v>
       </c>
       <c r="F7" t="str">
         <v>N/A</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>Downtown Dentistry</v>
+        <v>Airport Strip Club</v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+7040 Torbram Rd, Mississauga, ON L4T 3Z4, Canada</v>
+      </c>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 905-677-3798</v>
+      </c>
+      <c r="D8" t="str">
+        <v>http://www.airportstripclub.com/</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Bar</v>
       </c>
       <c r="F8" t="str">
         <v>N/A</v>
@@ -561,29 +578,51 @@
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>The Plaza Dental Centre</v>
+        <v>Filmores Gentlemen's Club</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
         <v xml:space="preserve">
-40 King St W, Toronto, ON M5H 3Y2, Canada</v>
+212 Dundas St E, Toronto, ON M5A 1Z6, Canada</v>
       </c>
       <c r="C9" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 416-861-9990</v>
++1 416-921-2191</v>
       </c>
       <c r="D9" t="str">
-        <v>http://www.plazadental.ca/</v>
+        <v>http://www.filmores.com/</v>
       </c>
       <c r="E9" t="str">
-        <v>Dentist</v>
+        <v>Adult entertainment club</v>
       </c>
       <c r="F9" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Cabaret Kingdom</v>
+      </c>
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+1417 St Laurent Blvd, Montreal, Quebec H2X 2S8, Canada</v>
+      </c>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 514-286-1417</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://www.kingdommontreal.com/</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Adult entertainment club</v>
+      </c>
+      <c r="F10" t="str">
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Output/results.xlsx
+++ b/Output/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,222 +407,645 @@
         <v>name</v>
       </c>
       <c r="B1" t="str">
+        <v>email</v>
+      </c>
+      <c r="C1" t="str">
         <v>address</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>phone</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>website</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>category</v>
       </c>
-      <c r="F1" t="str">
-        <v>email</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
+    </row>
+    <row r="2">
       <c r="A2" t="str">
-        <v>Whiskey A Go-Go Strip Club &amp; Adult Entertainment Venue</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-544 Rivermede Rd, Concord, ON L4K 2H4, Canada</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 416-722-6269</v>
-      </c>
-      <c r="D2" t="str">
-        <v>http://www.whiskeyagogo.com/</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Adult entertainment club</v>
-      </c>
-      <c r="F2" t="str">
+        <v>New York Dental Office</v>
+      </c>
+      <c r="B2" t="str">
         <v>N/A</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>The Granville Strip</v>
-      </c>
-      <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-1050 Granville St, Vancouver, BC V6Z 1L5, Canada</v>
+        <v>Sky Dental</v>
+      </c>
+      <c r="B3" t="str">
+        <v>N/A</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 778-379-0555</v>
-      </c>
-      <c r="D3" t="str">
-        <v>http://www.thegranvillestrip.com/</v>
+        <v xml:space="preserve">
+111 Broadway Suite 1304, New York, NY 10006, United States</v>
+      </c>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-600-1996</v>
       </c>
       <c r="E3" t="str">
-        <v>Adult entertainment club</v>
+        <v>https://skydentalnyc.com/?utm_campaign=gmb</v>
       </c>
       <c r="F3" t="str">
-        <v>N/A</v>
+        <v>Dentist</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Shade Gentlemen's Club</v>
-      </c>
-      <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-10148 105 St NW, Edmonton, AB T5J 1C9, Canada</v>
+        <v>Diamond District Dental NYC</v>
+      </c>
+      <c r="B4" t="str">
+        <v>N/A</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 780-761-2742</v>
-      </c>
-      <c r="D4" t="str">
-        <v>http://linktr.ee/shadegentlemensclub</v>
+        <v xml:space="preserve">
+10 W 46th St #1401, New York, NY 10036, United States</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-759-5595</v>
       </c>
       <c r="E4" t="str">
-        <v>Club</v>
+        <v>https://www.dddentalnyc.com/</v>
       </c>
       <c r="F4" t="str">
-        <v>N/A</v>
+        <v>Dentist</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>Pure Gold Gentlemen's Club</v>
-      </c>
-      <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-2630 Royal Windsor Dr, Mississauga, ON L5J 1K7, Canada</v>
+        <v>New York Dental Office</v>
+      </c>
+      <c r="B5" t="str">
+        <v>N/A</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 905-822-1525</v>
-      </c>
-      <c r="D5" t="str">
-        <v>https://thepuregoldclub.com/</v>
+        <v xml:space="preserve">
+245 E 63rd St #110, New York, NY 10065, United States</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-548-3261</v>
       </c>
       <c r="E5" t="str">
-        <v>Adult entertainment club</v>
+        <v>https://www.newyorkdentaloffice.com/</v>
       </c>
       <c r="F5" t="str">
-        <v>N/A</v>
+        <v>Dentist</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Mints Adult Entertainment</v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-5951 Main St, Niagara Falls, ON L2G 5Z7, Canada</v>
+        <v>New York General Dentistry</v>
+      </c>
+      <c r="B6" t="str">
+        <v>N/A</v>
       </c>
       <c r="C6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 905-357-0471</v>
-      </c>
-      <c r="D6" t="str">
-        <v>http://www.mintsniagara.com/</v>
+        <v xml:space="preserve">
+133 E 58th St Ste 409, New York, NY 10022, United States</v>
+      </c>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-838-0842</v>
       </c>
       <c r="E6" t="str">
-        <v>Adult entertainment club</v>
+        <v>https://newyorkgeneraldentistry.com/?utm_source=GMBlisting&amp;utm_medium=organic</v>
       </c>
       <c r="F6" t="str">
-        <v>N/A</v>
+        <v>Dental clinic</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>Sundowner</v>
-      </c>
-      <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-8870 Lundy's Ln, Niagara Falls, ON L2H 1H4, Canada</v>
+        <v>NYC Smile Spa</v>
+      </c>
+      <c r="B7" t="str">
+        <v>N/A</v>
       </c>
       <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 905-358-9124</v>
-      </c>
-      <c r="D7" t="str">
-        <v>http://www.sundownerclub.ca/</v>
+        <v xml:space="preserve">
+30 E 60th St Suite 1201, New York, NY 10022, United States</v>
+      </c>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 646-374-2242</v>
       </c>
       <c r="E7" t="str">
-        <v>Adult entertainment club</v>
+        <v>https://www.nycsmilespa.com/</v>
       </c>
       <c r="F7" t="str">
-        <v>N/A</v>
+        <v>Cosmetic dentist</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>Airport Strip Club</v>
-      </c>
-      <c r="B8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-7040 Torbram Rd, Mississauga, ON L4T 3Z4, Canada</v>
+        <v>New York Family Dental Arts</v>
+      </c>
+      <c r="B8" t="str">
+        <v>N/A</v>
       </c>
       <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 905-677-3798</v>
-      </c>
-      <c r="D8" t="str">
-        <v>http://www.airportstripclub.com/</v>
+        <v xml:space="preserve">
+200 E 72nd St, New York, NY 10021, United States</v>
+      </c>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-628-3300</v>
       </c>
       <c r="E8" t="str">
-        <v>Bar</v>
+        <v>http://www.dentalartsny.com/</v>
       </c>
       <c r="F8" t="str">
-        <v>N/A</v>
+        <v>Dentist</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>Filmores Gentlemen's Club</v>
-      </c>
-      <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-212 Dundas St E, Toronto, ON M5A 1Z6, Canada</v>
+        <v>My NYC Dentist - 34th Street Dental</v>
+      </c>
+      <c r="B9" t="str">
+        <v>N/A</v>
       </c>
       <c r="C9" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 416-921-2191</v>
-      </c>
-      <c r="D9" t="str">
-        <v>http://www.filmores.com/</v>
+        <v xml:space="preserve">
+225 W 35th St # 2, New York, NY 10001, United States</v>
+      </c>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-564-8164</v>
       </c>
       <c r="E9" t="str">
-        <v>Adult entertainment club</v>
+        <v>http://www.mynyc-dentist.com/</v>
       </c>
       <c r="F9" t="str">
-        <v>N/A</v>
+        <v>Dentist</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>Cabaret Kingdom</v>
-      </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-1417 St Laurent Blvd, Montreal, Quebec H2X 2S8, Canada</v>
+        <v>Midtown Dental Care Associates</v>
+      </c>
+      <c r="B10" t="str">
+        <v>N/A</v>
       </c>
       <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-+1 514-286-1417</v>
-      </c>
-      <c r="D10" t="str">
-        <v>https://www.kingdommontreal.com/</v>
+        <v xml:space="preserve">
+12 E 41st St suite 1100, New York, NY 10017, United States</v>
+      </c>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-685-4730</v>
       </c>
       <c r="E10" t="str">
-        <v>Adult entertainment club</v>
+        <v>https://www.midtowndentalcareassociates.com/?utm_source=gmb&amp;utm_medium=organic</v>
       </c>
       <c r="F10" t="str">
-        <v>N/A</v>
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>209 NYC Dental</v>
+      </c>
+      <c r="B11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+209 E 56th St 1st floor, New York, NY 10022, United States</v>
+      </c>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 646-493-6891</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Sachar Dental NYC</v>
+      </c>
+      <c r="B12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+20 E 46th St Rm 1301, New York, NY 10017, United States</v>
+      </c>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-752-1163</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://www.sachardental.com/</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Advanced Dental Arts NYC - LANAP Specialist</v>
+      </c>
+      <c r="B13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+55 E 9th St, New York, NY 10003, United States</v>
+      </c>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-388-1170</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://advanceddentalartsnyc.com/</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Studio Smiles</v>
+      </c>
+      <c r="B14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+41 Park Ave # 1C, New York, NY 10016, United States</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 646-470-1376</v>
+      </c>
+      <c r="E14" t="str">
+        <v>http://www.studiosmilesnyc.com/</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Expert Dental - Midtown</v>
+      </c>
+      <c r="B15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+110 E 40th St #104, New York, NY 10016, United States</v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-763-3383</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://www.expertdentalnyc.com/</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>New York DMD</v>
+      </c>
+      <c r="B16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+115 E 61st St Suite 12A, New York, NY 10065, United States</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 917-284-9680</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://newyorkdmd.com/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=DevOptimization&amp;utm_content=Website</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Central Park Dentistry</v>
+      </c>
+      <c r="B17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+30 Central Park S #2b, New York, NY 10019, United States</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-486-6211</v>
+      </c>
+      <c r="E17" t="str">
+        <v>http://cpsdent.com/</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Midtown Dental Group Fashion District</v>
+      </c>
+      <c r="B18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+241 W 37th St Ground Floor, New York, NY 10018, United States</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-730-4440</v>
+      </c>
+      <c r="E18" t="str">
+        <v>http://www.midtowndentalgroup.com/</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>New York Dental Studio</v>
+      </c>
+      <c r="B19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+30 E 60th St suite 2402, New York, NY 10022, United States</v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-588-1809</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://www.nydentalstudio.com/</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Smile Arts of NY</v>
+      </c>
+      <c r="B20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+30 E 40th St Ground Floor #105, New York, NY 10016, United States</v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-537-6923</v>
+      </c>
+      <c r="E20" t="str">
+        <v>http://www.smileartsofny.com/</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Cosmetic dentist</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Village Dental NYC</v>
+      </c>
+      <c r="B21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+77 E 12th St, New York, NY 10003, United States</v>
+      </c>
+      <c r="D21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 315-860-0238</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://villagedentalnyc.com/</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Astoria Modern Family Dental</v>
+      </c>
+      <c r="B22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+31-56 Steinway St, Astoria, NY 11103, United States</v>
+      </c>
+      <c r="D22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 718-721-4700</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://www.astoriamodernfamilydental.com/</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Sky Dental</v>
+      </c>
+      <c r="B23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+111 Broadway Suite 1304, New York, NY 10006, United States</v>
+      </c>
+      <c r="D23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-600-1996</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://skydentalnyc.com/?utm_campaign=gmb</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Park Smiles NYC Cosmetic Dentistry</v>
+      </c>
+      <c r="B24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+1175 Park Ave # 1d, New York, NY 10128, United States</v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 929-209-3936</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://www.parksmilesnyc.com/?utm_campaign=gmb</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Cosmetic dentist</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>SLim Dental</v>
+      </c>
+      <c r="B25" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+30 E 37th St, New York, NY 10016, United States</v>
+      </c>
+      <c r="D25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 646-727-4188</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://www.slimdental.com/contact-us/dentist-murray-hill/</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Dentistry For Health New York</v>
+      </c>
+      <c r="B26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+120 East 56th Street 12th Floor, 120 E 56th St #12, New York, NY 10022, United States</v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 917-477-7771</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://dentistryforhealthny.com/</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Manhattan Dental Studio</v>
+      </c>
+      <c r="B27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+358 5th Ave #1005, New York, NY 10001, United States</v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-685-2476</v>
+      </c>
+      <c r="E27" t="str">
+        <v>http://www.manhattandentalstudio.com/</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>New York Smile Institute</v>
+      </c>
+      <c r="B28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+693 5th Ave 14th floor, New York, NY 10022, United States</v>
+      </c>
+      <c r="D28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-319-6363</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://www.nysi.org/</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Dentist</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Better Living through Dentistry : Manhattan</v>
+      </c>
+      <c r="B29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+155 W 68th St #228, New York, NY 10023, United States</v>
+      </c>
+      <c r="D29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 212-724-6280</v>
+      </c>
+      <c r="E29" t="str">
+        <v>http://www.implantnyc.com/</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Dental implants periodontist</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Wall Street Dental Spa - Financial District</v>
+      </c>
+      <c r="B30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+30 Wall St #720, New York, NY 10005, United States</v>
+      </c>
+      <c r="D30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++1 646-849-6916</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://wallstdentalspanyc.com/</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Dentist</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Output/results.xlsx
+++ b/Output/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,21 +424,21 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Astoria Modern Family Dental</v>
+        <v>King Pest Control | Termite Treatment Services | Termite Control Lahore | Pest Control in Lahore</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-31-56 Steinway St, Astoria, NY 11103, United States</v>
+613-G Link Dhobi Ghat Rd, near Kashmir Bakers, Model Town Extension Block Q Model Town, Lahore, 54700, Pakistan</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 718-721-4700</v>
++92 300 9487991</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.astoriamodernfamilydental.com/</v>
+        <v>https://kingpestcontrolpk.com/</v>
       </c>
       <c r="E2" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F2" t="str">
         <v>N/A</v>
@@ -446,21 +446,21 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Sky Dental</v>
+        <v>Shah Trading Corporation</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-111 Broadway Suite 1304, New York, NY 10006, United States</v>
+154 Lahore – Kasur Rd, Ichhra Lahore, 54000, Pakistan</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-600-1996</v>
++92 331 4443888</v>
       </c>
       <c r="D3" t="str">
-        <v>https://skydentalnyc.com/?utm_campaign=gmb</v>
+        <v>http://www.shahtradingcorp.com/</v>
       </c>
       <c r="E3" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F3" t="str">
         <v>N/A</v>
@@ -468,18 +468,21 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>209 NYC Dental</v>
+        <v>Tahir Termite Control Services Private Limited Water Tank Cleaning Services in Lahore</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-209 E 56th St 1st floor, New York, NY 10022, United States</v>
+13, Sector XX BLOCK XX DHA Phase 3, Lahore, 54810, Pakistan</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 646-493-6891</v>
++92 300 8000036</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://tts.com.pk/</v>
       </c>
       <c r="E4" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F4" t="str">
         <v>N/A</v>
@@ -487,21 +490,21 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>Pearl Dental NYC</v>
+        <v>Power Max - Al-Falah Trading Company</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
         <v xml:space="preserve">
-233 Broadway Suite 1801, New York, NY 10279, United States</v>
+House No. 13/B-I, Block E2, Gulberg-III,, Lahore, Pakistan, Pakistan</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-344-9317</v>
++92 300 4150567</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.pearldentalnyc.com/</v>
+        <v>http://pages.ebizlahore.com/Power-Max-Termite-Proofing-Fumigation-Lahore-Pakistan.htm</v>
       </c>
       <c r="E5" t="str">
-        <v>Dental clinic</v>
+        <v>Pest control service</v>
       </c>
       <c r="F5" t="str">
         <v>N/A</v>
@@ -509,21 +512,21 @@
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>New York General Dentistry</v>
+        <v>Terminix Termite Control Pakistan</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-133 E 58th St Ste 409, New York, NY 10022, United States</v>
+Office # 80/G LDA, Model Town Extension Block N Model Town, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-838-0842</v>
++92 300 8881780</v>
       </c>
       <c r="D6" t="str">
-        <v>https://newyorkgeneraldentistry.com/?utm_source=GMBlisting&amp;utm_medium=organic</v>
+        <v>http://www.pestkillr.com/</v>
       </c>
       <c r="E6" t="str">
-        <v>Dental clinic</v>
+        <v>Pest control service</v>
       </c>
       <c r="F6" t="str">
         <v>N/A</v>
@@ -531,21 +534,21 @@
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>Park Smiles NYC Cosmetic Dentistry</v>
+        <v>Termite and pest control Shield Chemicals</v>
       </c>
       <c r="B7" t="str" xml:space="preserve">
         <v xml:space="preserve">
-1175 Park Ave # 1d, New York, NY 10128, United States</v>
+272-Y, phase, 3 commercial Defence Rd, Sector Y DHA Phase 3, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C7" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 929-209-3936</v>
++92 333 4235391</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.parksmilesnyc.com/?utm_campaign=gmb</v>
+        <v>https://kingpestcontrolpk.com/</v>
       </c>
       <c r="E7" t="str">
-        <v>Cosmetic dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F7" t="str">
         <v>N/A</v>
@@ -553,21 +556,21 @@
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>New York Dental Studio</v>
+        <v>Termite(deemak)Control Specialist Lahore.</v>
       </c>
       <c r="B8" t="str" xml:space="preserve">
         <v xml:space="preserve">
-30 E 60th St suite 2402, New York, NY 10022, United States</v>
+House 129, Block N Block P Model Town, Lahore, 54700, Pakistan</v>
       </c>
       <c r="C8" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-588-1809</v>
++92 300 4233369</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.nydentalstudio.com/</v>
+        <v>https://kingpestcontrolpk.com/</v>
       </c>
       <c r="E8" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F8" t="str">
         <v>N/A</v>
@@ -575,21 +578,21 @@
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>City Dental Group NYC</v>
+        <v>Pearl Pest Control Services</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
         <v xml:space="preserve">
-11 Broadway Lobby 4, New York, NY 10004, United States</v>
+19C, Bank Square Market, Model Town, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C9" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-425-0505</v>
++92 311 1207618</v>
       </c>
       <c r="D9" t="str">
-        <v>https://citydentalnyc.com/?utm_source=gbp&amp;utm_medium=organic&amp;utm_campaign=gbp-listing</v>
+        <v>http://pearlpestcontrol.com/</v>
       </c>
       <c r="E9" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F9" t="str">
         <v>N/A</v>
@@ -597,21 +600,21 @@
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>NYCDENTAL</v>
+        <v>Farmer Seed and Spray Center Adda Plot</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
         <v xml:space="preserve">
-1317 3rd Ave 2nd Floor, New York, NY 10021, United States</v>
+Adda Plot, Raiwind Rd, opposite PSO, inside the street, Block K Fazaia Housing Society, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C10" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-348-5492</v>
++92 300 4577781</v>
       </c>
       <c r="D10" t="str">
-        <v>https://nycdent.com/</v>
+        <v>https://wa.me/+923004577781</v>
       </c>
       <c r="E10" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F10" t="str">
         <v>N/A</v>
@@ -619,21 +622,21 @@
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>Sachar Dental NYC</v>
+        <v>Base Termite &amp; Pest Control Services</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
         <v xml:space="preserve">
-20 E 46th St Rm 1301, New York, NY 10017, United States</v>
+128, Block P Model Town, Lahore, 54000, Pakistan</v>
       </c>
       <c r="C11" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-752-1163</v>
++92 300 4444679</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.sachardental.com/</v>
+        <v>https://basetermitecontrol.pk/</v>
       </c>
       <c r="E11" t="str">
-        <v>Dentist</v>
+        <v>Pest control service</v>
       </c>
       <c r="F11" t="str">
         <v>N/A</v>
@@ -641,21 +644,21 @@
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>212 Dental Care</v>
+        <v>Pesto Guard Pest &amp; Termite Control Services</v>
       </c>
       <c r="B12" t="str" xml:space="preserve">
         <v xml:space="preserve">
-286 Madison Ave 10th Floor, New York, NY 10017, United States</v>
+90 A BL N, Model Town, Lahore, 54700, Pakistan</v>
       </c>
       <c r="C12" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 888-506-9583</v>
++92 312 4255502</v>
       </c>
       <c r="D12" t="str">
-        <v>http://212dentalcare.com/</v>
+        <v>https://brotherstermite.pk/</v>
       </c>
       <c r="E12" t="str">
-        <v>Dental clinic</v>
+        <v>Pest control service</v>
       </c>
       <c r="F12" t="str">
         <v>N/A</v>
@@ -663,29 +666,289 @@
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
-        <v>My NYC Dentist - Hudson Street Dental</v>
+        <v>Pearl Pest Control</v>
       </c>
       <c r="B13" t="str" xml:space="preserve">
         <v xml:space="preserve">
-90 Vandam St, New York, NY 10013, United States</v>
+Pearl Corporate Building Abpara, Canal Bank Road, 53710, Pakistan</v>
       </c>
       <c r="C13" t="str" xml:space="preserve">
         <v xml:space="preserve">
-+1 212-359-0064</v>
++92 300 0846540</v>
       </c>
       <c r="D13" t="str">
-        <v>http://mynyc-dentist.com/</v>
+        <v>https://pearlpestcontrol.com/</v>
       </c>
       <c r="E13" t="str">
-        <v>Dental clinic</v>
+        <v>Pest control service</v>
       </c>
       <c r="F13" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>C-SHINE Sustainable Solutions (A Rentokil Initial Company)</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Paradise store, Street No 2, Sector S DHA Phase 2, Lahore, Pakistan</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 322 7505108</v>
+      </c>
+      <c r="D14" t="str">
+        <v>http://www.c-shinegroup.com/</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F14" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Hafiz Pest Control</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+613 G, e.x.t Block Q Lahore, 54700, Pakistan</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 300 4888279</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://hafizpestcontrol.com/</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F15" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>PesTerminator</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Sector Y, St 10, Commercial Area Sector Y DHA Phase 3, Lahore, Pakistan</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 317 1117378</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://kingpestcontrolpk.com/</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F16" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Sohail Termite Control</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+160-A, Model Town, Lahore, Pakistan</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 300 4545616</v>
+      </c>
+      <c r="D17" t="str">
+        <v>http://sohailtermitecontrol.com/contact/</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F17" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Nayab Pest Control Services</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+254-G1, Johar Town, Lahore, 54000, Pakistan</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 300 4422468</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://www.nayabpestcontrol.com/</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F18" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Termite Control in Lahore</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Ameer Chowk, College Road, Township Block C 1 Nespak Housing Scheme, Lahore, 54000, Pakistan</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 322 4509546</v>
+      </c>
+      <c r="D19" t="str">
+        <v>http://termitecontrolinlahore.com/</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Shamsi Home Solution</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+31 E 1km Defence Road Chungi amer sidhu, Lahore – Kasur Rd, Mustafa Colony, Lahore, 54000, Pakistan</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 300 0536111</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://kingpestcontrolpk.com/</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F20" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Muhafiz Fumigation &amp; bedbugs Lahore</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Edhi street Near Jinah hospital, 20 Street, Government Officers Residence - V Block A Faisal Town, Lahore, 54000, Pakistan</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 300 9494798</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://www.muhafizpest.com/</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F21" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>HASSAN CORPORATION</v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+OFFICE NO 32, FIRST FLOOR, J1, COMMERCIAL MARKET, WAPDA Block J 1 Wapda Town Phase 1 TOWN, Lahore, 54000, Pakistan</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 321 1119921</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://kingpestcontrolpk.com/</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F22" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Hasan Termite &amp; Pest Control Services</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Office 3 Khayaban-e-Jinnah, near Shuakat Khanum Hospital, WAPDA Town Block N 1 Wapda Town Phase 2 Lahore, 54000, Pakistan</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 323 4400035</v>
+      </c>
+      <c r="D23" t="str">
+        <v>http://pesttrust.com/</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F23" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Rentokil Lahore (C-Shine)</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 304 1112006</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://kingpestcontrolpk.com/</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F24" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Lasani agro services</v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Shahdara More, sheikhupura road, Shahdara Town, Lahore, Pakistan</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
++92 300 4231985</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://kingpestcontrolpk.com/</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Pest control service</v>
+      </c>
+      <c r="F25" t="str">
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
   </ignoredErrors>
 </worksheet>
 </file>